--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815195.6944066273</v>
+        <v>653387.3035603781</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>308.4120401249482</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>241.492310659352</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>182.9517011130389</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>106.2184727157452</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>139.2886326231161</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>149.3055094953049</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>95.86999789729441</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>101.3315047991726</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>153.7066665474637</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>16.97175332133616</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.0719375076614</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U22" t="n">
-        <v>114.9309043193593</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.14085215535448</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.68432091410182</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.658918749019452</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.6195484041297</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3007,13 +3007,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>98.14361023919656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>49.50083494061402</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.34682769251216</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>32.87326502070254</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>195.8155841663235</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>220.3969740950022</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2033.346402544967</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C2" t="n">
-        <v>2033.346402544967</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="D2" t="n">
-        <v>1675.080703938216</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1126.824321640423</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>715.838416850816</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>297.8746087490028</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.946621408918</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1606.946621408918</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1221.158368810674</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>810.1724640210666</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>392.2086559192535</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>558.0164765518583</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>558.0164765518583</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>268.5993065148977</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>268.5993065148977</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5993065148977</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1565.645192415031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1192.179434153951</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.0401021781393</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F10" t="n">
-        <v>325.2978374347316</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>156.298037173064</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347316</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347316</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,22 +5039,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5066,7 +5066,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.529009893327</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.049665530945</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O12" t="n">
-        <v>1834.803079614907</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>114.3602766333527</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220957</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,16 +5343,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>674.4285624571609</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1442.796708849623</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N15" t="n">
-        <v>1787.31736448724</v>
+        <v>2092.7372104782</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>929.4878141548604</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>779.3711747425247</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>631.4580811601315</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X16" t="n">
-        <v>241.9805482336712</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>1098.423997082767</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>388.8958536704856</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M18" t="n">
-        <v>709.2311732001874</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.414563824402</v>
+        <v>2169.797610509966</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5698,7 +5698,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
@@ -5732,28 +5732,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M21" t="n">
-        <v>1645.803509761998</v>
+        <v>629.3975440735811</v>
       </c>
       <c r="N21" t="n">
-        <v>2360.905457152158</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O21" t="n">
-        <v>2360.905457152158</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5932,25 +5932,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
         <v>278.8655562905255</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,22 +6005,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
@@ -6072,19 +6072,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>493.5013994809973</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M24" t="n">
-        <v>1261.869545873459</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>1975.666137426031</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.1954542207687</v>
+        <v>4458.413529040524</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>4289.477346112617</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>4139.360706700281</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>3991.447613117888</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>3844.557665619978</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3676.382343939798</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3525.964335487742</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1480.043219129517</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>1480.043219129517</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.043219129517</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.626049092556</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="X25" t="n">
-        <v>962.6364981945386</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.8439190510085</v>
+        <v>4640.061993870763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8589595388348</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>1387.227105931296</v>
+        <v>854.5887484936142</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.747761568914</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.501175652876</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P27" t="n">
-        <v>2500.801797388624</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.086356507268</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507268</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.527400481037</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4586.527400481037</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4586.527400481037</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4586.527400481037</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>4586.527400481037</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X28" t="n">
-        <v>4586.527400481037</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y28" t="n">
-        <v>4365.734821337507</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1067.429715884973</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>1387.765035414674</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N30" t="n">
-        <v>2192.176613678825</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>575.8721432007717</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>575.8721432007717</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6783,22 +6783,22 @@
         <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>618.8589595388348</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N33" t="n">
-        <v>1423.270537802985</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.734299105645</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1448.915427183545</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1248.995417099097</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1248.995417099097</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1248.995417099097</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,49 +6935,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>493.5013994809973</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M36" t="n">
-        <v>1149.698165809328</v>
+        <v>542.9099710478251</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>1347.321549311976</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>3893.336020727023</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>3603.918850690063</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7157,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,13 +7208,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181233</v>
+        <v>458.9654706914334</v>
       </c>
       <c r="L39" t="n">
-        <v>836.471721275012</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M39" t="n">
-        <v>1143.791854554973</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N39" t="n">
-        <v>1488.312510192592</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D40" t="n">
-        <v>410.1323227212476</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1323227212476</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1323227212476</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G40" t="n">
-        <v>241.9570010410683</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7369,13 +7369,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,40 +7394,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>921.1936903636249</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N42" t="n">
-        <v>1265.714346001243</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2072.390202643127</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7597,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>244.1070389581962</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,25 +7640,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7673,25 +7673,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1112.350365759211</v>
       </c>
       <c r="N45" t="n">
-        <v>2107.322705390779</v>
+        <v>1456.871021396829</v>
       </c>
       <c r="O45" t="n">
-        <v>2386.862770609477</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2591.885251391686</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>965.2979508787123</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>965.2979508787123</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>291.5540683467755</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711638</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>36.78328680247853</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>227.1316356902361</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>372.0881845771818</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>40.71807162968526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>265.564702125997</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>131.9420750462</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.74113413690307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>42.34911051526983</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.26883114644329</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U22" t="n">
-        <v>171.306448079218</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>44.2783933089175</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>202.8632401442874</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>163.5879023496084</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>36.30126157947356</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>153.9940330846314</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>60.46351746317877</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25360,7 +25360,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>121.0742203304191</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0405633468336</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25837,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>29.89407122271365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.150586963387042</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>723403.760514762</v>
+      </c>
+      <c r="J2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.760514761</v>
       </c>
       <c r="K2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147607</v>
       </c>
       <c r="P2" t="n">
         <v>723403.7605147616</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905759301</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758077</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411043</v>
+        <v>-52422.45933411072</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804337</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804337</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985728</v>
+        <v>105468.6043985722</v>
       </c>
       <c r="F6" t="n">
         <v>630628.6408754687</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754687</v>
+        <v>630628.6408754691</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754687</v>
+        <v>630628.640875469</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754685</v>
+        <v>630628.6408754695</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828756</v>
+        <v>454205.4216828757</v>
       </c>
       <c r="K6" t="n">
         <v>630628.6408754686</v>
       </c>
       <c r="L6" t="n">
-        <v>630628.640875469</v>
+        <v>630628.6408754686</v>
       </c>
       <c r="M6" t="n">
-        <v>495827.6256416313</v>
+        <v>495827.6256416314</v>
       </c>
       <c r="N6" t="n">
-        <v>630628.640875469</v>
+        <v>630628.6408754688</v>
       </c>
       <c r="O6" t="n">
-        <v>630628.6408754685</v>
+        <v>630628.6408754683</v>
       </c>
       <c r="P6" t="n">
         <v>630628.6408754691</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>73.51832994731359</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82.43046210500515</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9710716513183</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>145.0056947925441</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>146.9932416188617</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>233.4283321681757</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>253.3709708201186</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>54.83938404262258</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>132.8163317891273</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,7 +31853,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.0642534345932</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31862,7 +31862,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32081,22 +32081,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>30.34832796696509</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565527</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>313.8007424107041</v>
+        <v>349.2875224875883</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32494,7 +32494,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S20" t="n">
         <v>76.0697047810465</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>374.3245371237792</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>96.64798629870893</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>26.41017036274127</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>53.91631260018724</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>164.6848965247098</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>101.2965657842845</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>180.9230254788818</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>281.6173435796094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>339.2539866652818</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>203.4934250822614</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304459</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>238.7786052255657</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33992,16 +33992,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,16 +34208,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34226,7 +34226,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>74.17212909489541</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>103.5747786301874</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>171.9901114440537</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35501,10 +35501,10 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>409.3303282668783</v>
       </c>
       <c r="P12" t="n">
-        <v>498.6474832783002</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303321</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>319.1469890435867</v>
+        <v>281.6144027992502</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>661.8014046709243</v>
+        <v>697.2881847478085</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>537.5560127407024</v>
       </c>
       <c r="N21" t="n">
-        <v>722.3251993839995</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>444.6486485589292</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>654.4518868182899</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>349.9812001907229</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.0118262500148</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>396.9708620482947</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>352.5626406165696</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>528.923687739102</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>466.1057048052163</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>662.8250164932634</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>454.7594999145464</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109091</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>365.4024032637853</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>323.0817738707934</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>547.9284043671051</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>258.6604903205023</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>354.8408534624725</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.0083373580322</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3913683.850064704</v>
+        <v>3989213.519729509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653387.3035603781</v>
+        <v>491285.8061467383</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.36038505</v>
+        <v>7553324.360385051</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>241.492310659352</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>137.4516853869105</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>195.6275052289086</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>132.6273756510685</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>106.2184727157452</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.7835007017901</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>34.02048567924305</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149.3055094953049</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>245.3042230207497</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>153.7066665474637</v>
+        <v>235.7412200973001</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H13" t="n">
-        <v>16.97175332133616</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>98.24023049549213</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>103.0719375076614</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>47.07045265793918</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.52667712434427</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>137.9370429906305</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>48.78554903889605</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>3.658918749019452</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>44.29165594789428</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>55.51369213499295</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>53.99255234326091</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.50083494061402</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>285.23560628385</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>24.34682769251216</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>36.98273601213668</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>51.76584036429459</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>114.8334503316612</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>220.3969740950022</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.612574238668</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1512.612574238668</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1512.612574238668</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.824321640423</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>715.838416850816</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>297.8746087490028</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2508.153355436525</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2508.153355436525</v>
       </c>
       <c r="U5" t="n">
-        <v>2534.829014967155</v>
+        <v>2254.391570074617</v>
       </c>
       <c r="V5" t="n">
-        <v>2534.829014967155</v>
+        <v>2254.391570074617</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.06035969704</v>
+        <v>1901.622914804502</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.06035969704</v>
+        <v>1901.622914804502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>693.7648572577039</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>693.7648572577039</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>693.7648572577039</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>451.8571388448397</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>681.8202447131888</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.405785702849</v>
+        <v>1002.155564242891</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.926441340468</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282.5355983135321</v>
+        <v>673.9335914287634</v>
       </c>
       <c r="C13" t="n">
-        <v>282.5355983135321</v>
+        <v>673.9335914287634</v>
       </c>
       <c r="D13" t="n">
-        <v>282.5355983135321</v>
+        <v>523.8169520164278</v>
       </c>
       <c r="E13" t="n">
-        <v>282.5355983135321</v>
+        <v>523.8169520164278</v>
       </c>
       <c r="F13" t="n">
-        <v>282.5355983135321</v>
+        <v>376.9270045185175</v>
       </c>
       <c r="G13" t="n">
-        <v>114.3602766333527</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>954.8146123150557</v>
       </c>
       <c r="X13" t="n">
-        <v>503.3281774570622</v>
+        <v>855.582056259003</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.5355983135321</v>
+        <v>855.582056259003</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1288.32563221405</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.7372104782</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.423997082767</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4878141548604</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3711747425247</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4580811601315</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1340.295255344032</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1116.509840133537</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1116.509840133537</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.423997082767</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.423997082767</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>131.4669238563967</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>542.3571927009093</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>772.3202985692585</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1092.65561809896</v>
       </c>
       <c r="N18" t="n">
-        <v>2169.797610509966</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O18" t="n">
-        <v>2418.551024593929</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5731,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M21" t="n">
-        <v>629.3975440735811</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337732</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>3914.311870797674</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>3745.375687869767</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3745.375687869767</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3745.375687869767</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3598.485740371857</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.085404217832</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.956765431391</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>4606.170084808405</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>4316.752914771444</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>4316.752914771444</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>4095.960335627914</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,19 +6013,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695368</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M24" t="n">
-        <v>1645.803509761998</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="N24" t="n">
-        <v>1975.666137426031</v>
+        <v>1204.704501056852</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4458.413529040524</v>
+        <v>3803.236767359499</v>
       </c>
       <c r="C25" t="n">
-        <v>4289.477346112617</v>
+        <v>3803.236767359499</v>
       </c>
       <c r="D25" t="n">
-        <v>4139.360706700281</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E25" t="n">
-        <v>3991.447613117888</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F25" t="n">
-        <v>3844.557665619978</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>3676.382343939798</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>3525.964335487742</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014293</v>
+        <v>4495.09498137023</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014293</v>
+        <v>4205.677811333269</v>
       </c>
       <c r="X25" t="n">
-        <v>4860.854573014293</v>
+        <v>4205.677811333269</v>
       </c>
       <c r="Y25" t="n">
-        <v>4640.061993870763</v>
+        <v>3984.885232189739</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1073603047985</v>
+        <v>791.4103545382638</v>
       </c>
       <c r="M27" t="n">
-        <v>854.5887484936142</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.000326757765</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O27" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.8029164824583</v>
+        <v>3969.076348919114</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>3969.076348919114</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>3818.959709506779</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>3818.959709506779</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3672.069762008869</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3503.894440328689</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3503.894440328689</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240057</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X28" t="n">
-        <v>468.5954956259884</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.8029164824583</v>
+        <v>4150.724813749354</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,10 +6496,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1942790685366</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N30" t="n">
-        <v>1743.605857332687</v>
+        <v>1466.525085699305</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.642871543091</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6658,13 +6660,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,7 +6691,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1771.161069819836</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N33" t="n">
-        <v>2294.795520681547</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="O33" t="n">
-        <v>2543.548934765509</v>
+        <v>2278.124713046411</v>
       </c>
       <c r="P33" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.3109288932102</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C34" t="n">
-        <v>825.3747459653033</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2581065529675</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1448.915427183545</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1248.995417099097</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.995417099097</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1248.995417099097</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>994.3109288932102</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>994.3109288932102</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>994.3109288932102</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y34" t="n">
-        <v>994.3109288932102</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6925,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,10 +6961,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>222.5746515181233</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>542.9099710478251</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N36" t="n">
-        <v>1347.321549311976</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>4148.02050893291</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="V37" t="n">
-        <v>3893.336020727023</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="W37" t="n">
-        <v>3603.918850690063</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916677</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916677</v>
+        <v>676.0189678006951</v>
       </c>
     </row>
     <row r="38">
@@ -7169,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,10 +7198,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K39" t="n">
-        <v>458.9654706914334</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L39" t="n">
-        <v>688.9285765597825</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="M39" t="n">
-        <v>1009.263896089484</v>
+        <v>3020.830104925254</v>
       </c>
       <c r="N39" t="n">
-        <v>1353.784551727102</v>
+        <v>3365.350760562872</v>
       </c>
       <c r="O39" t="n">
-        <v>2023.248313029762</v>
+        <v>4034.814521865531</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.4856756861153</v>
+        <v>4352.721170395453</v>
       </c>
       <c r="C40" t="n">
-        <v>699.5494927582084</v>
+        <v>4183.784987467546</v>
       </c>
       <c r="D40" t="n">
-        <v>549.4328533458727</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="E40" t="n">
-        <v>401.5197597634796</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185178</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4823.498274012134</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4823.498274012134</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>4534.369635225692</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>4534.369635225692</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>4534.369635225692</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>4534.369635225692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>4534.369635225692</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7396,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7491,25 +7493,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>738.0704661731477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.405785702849</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.926441340468</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.390202643127</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>563.4612303381601</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="D43" t="n">
-        <v>777.4224042438901</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="E43" t="n">
-        <v>629.509310661497</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6193631635866</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768792</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>615.7499579788617</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>563.4612303381601</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7642,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,13 +7684,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7725,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>226.2523912927239</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>351.6099513505613</v>
       </c>
       <c r="L45" t="n">
-        <v>343.9822193667499</v>
+        <v>351.6099513505613</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.350365759211</v>
+        <v>671.9452708802631</v>
       </c>
       <c r="N45" t="n">
-        <v>1456.871021396829</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>965.2979508787123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>965.2979508787123</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V46" t="n">
-        <v>710.6134626728254</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W46" t="n">
-        <v>710.6134626728254</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X46" t="n">
-        <v>710.6134626728254</v>
+        <v>381.3857973138604</v>
       </c>
       <c r="Y46" t="n">
-        <v>710.6134626728254</v>
+        <v>381.3857973138604</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>227.1316356902361</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0881845771818</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,22 +10199,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>62.72557111785329</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>71.74924548907956</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>184.8482168056622</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>382.84021469379</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.9420750462</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>127.4694248935449</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>42.34911051526983</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>150.8503573256641</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>194.0579762277505</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>28.55652547274713</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>99.82992397931631</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>44.2783933089175</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,10 +24423,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>163.5879023496084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>66.1275895163777</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.0093062015981</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>94.62292067495144</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.46351746317877</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.001746114727382</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.3938331833848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.0742203304191</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>160.9380739714666</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>166.8188129878003</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>64.9985298502761</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.150586963387042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.760514761</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="K2" t="n">
         <v>723403.7605147616</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.760514762</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="M2" t="n">
+        <v>723403.7605147609</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="N2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147607</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.701276818911232e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26426,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759918</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759584</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759184</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759043</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905757909</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26476,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411072</v>
+        <v>-52422.45933411046</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804337</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="D6" t="n">
         <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985722</v>
+        <v>105468.604398573</v>
       </c>
       <c r="F6" t="n">
         <v>630628.6408754687</v>
       </c>
       <c r="G6" t="n">
+        <v>630628.6408754685</v>
+      </c>
+      <c r="H6" t="n">
+        <v>630628.6408754686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>630628.6408754686</v>
+      </c>
+      <c r="J6" t="n">
+        <v>454205.4216828755</v>
+      </c>
+      <c r="K6" t="n">
         <v>630628.6408754691</v>
       </c>
-      <c r="H6" t="n">
-        <v>630628.640875469</v>
-      </c>
-      <c r="I6" t="n">
-        <v>630628.6408754695</v>
-      </c>
-      <c r="J6" t="n">
-        <v>454205.4216828757</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>630628.6408754687</v>
+      </c>
+      <c r="M6" t="n">
+        <v>495827.6256416313</v>
+      </c>
+      <c r="N6" t="n">
+        <v>630628.6408754687</v>
+      </c>
+      <c r="O6" t="n">
+        <v>630628.6408754687</v>
+      </c>
+      <c r="P6" t="n">
         <v>630628.6408754686</v>
-      </c>
-      <c r="L6" t="n">
-        <v>630628.6408754686</v>
-      </c>
-      <c r="M6" t="n">
-        <v>495827.6256416314</v>
-      </c>
-      <c r="N6" t="n">
-        <v>630628.6408754688</v>
-      </c>
-      <c r="O6" t="n">
-        <v>630628.6408754683</v>
-      </c>
-      <c r="P6" t="n">
-        <v>630628.6408754691</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.006947179744977e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>82.43046210500515</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>248.7862532691431</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>22.95714812318619</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>41.78833715790299</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>145.0056947925441</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.04847948014722</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>112.6447063009148</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.4283321681757</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>140.9337156353039</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28059,19 +28061,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>132.8163317891273</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28327,10 +28329,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.006947179744977e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.006947179744977e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.006947179744977e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.006947179744977e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.610189419747426e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.006947179744977e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>5.119648843894064e-14</v>
       </c>
     </row>
     <row r="30">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,10 +31372,10 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31619,7 +31621,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>63.59725775187283</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31853,22 +31855,22 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.0642534345932</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>30.34832796696509</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>111.3199910445496</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>161.4334169657686</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>349.2875224875883</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>104.8660281469029</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32788,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>347.5510495823864</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33029,25 +33031,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>53.878675116279</v>
       </c>
       <c r="M27" t="n">
-        <v>26.41017036274127</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>101.2965657842845</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33442,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33500,22 +33502,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>180.9230254788818</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33679,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33737,19 +33739,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>203.4934250822614</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33971,16 +33973,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>238.7786052255657</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>369.6935619162738</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33992,7 +33994,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34129,7 +34131,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34153,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34208,16 +34210,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34226,13 +34228,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>74.17212909489541</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34445,25 +34447,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>131.0852780256903</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>103.5747786301874</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>190.2210557900924</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35501,13 +35503,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>409.3303282668783</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,19 +35734,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>281.6144027992502</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.59579029910188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>697.2881847478085</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>537.5560127407024</v>
+        <v>428.4370579748845</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>654.4518868182899</v>
+        <v>598.8171244146715</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>286.164640639864</v>
       </c>
       <c r="M27" t="n">
-        <v>349.9812001907229</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>352.5626406165696</v>
+        <v>345.0892733589615</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>528.923687739102</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>278.8426604206043</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>53.50650472232885</v>
       </c>
       <c r="O36" t="n">
-        <v>454.7594999145464</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>365.4024032637853</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>693.2645917442554</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
@@ -37640,7 +37642,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>693.2645917442563</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
@@ -37874,13 +37876,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>258.6604903205023</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655654</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187463</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>130.3386866994324</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>354.8408534624725</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3982196.504837798</v>
+        <v>3987135.76768683</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>583613.9879728225</v>
+        <v>601597.5714884741</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>257.0152846411282</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017903</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>6.28367916400425</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>31.60187511706035</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.60408762095435</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>318.0543889519378</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>338.2584895448973</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295494</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>15.18674635574075</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>161.6877691571402</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151923</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847135</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532057</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>36.31437750815307</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.34190763938454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>135.4958706305995</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.9309043193597</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>201.6473422926464</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.509002921313</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.02307474038</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2665.228005041394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2665.228005041394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2665.228005041394</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2291.762246780314</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1901.622914804502</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4658,7 +4658,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321495</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198137</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374206</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951026</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951026</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.21241430279</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.249897362379</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.984198755628</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>786.195946157384</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>375.2100413677765</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278602</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4941,67 +4941,67 @@
         <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
         <v>625.3202087220412</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>129.2919832901865</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043085</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.5481934947357</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1059.87069742888</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>805.1862092229927</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>805.1862092229927</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>577.1966583249754</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y13" t="n">
-        <v>577.1966583249754</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,61 +5269,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111987</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171747</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M18" t="n">
         <v>1479.482307609636</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171747</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
         <v>1479.482307609636</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,10 +6211,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,22 +6223,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,37 +6463,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.3735683412854</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352016</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150552</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>954.8146123150552</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.0220331715251</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,28 +7113,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,34 +7168,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570741</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>531.1091870201135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>303.1196361220962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.3089140050936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.3089140050936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.3089140050936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.3089140050936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>213.3089140050936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768808</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788634</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353333</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,7 +7730,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>170.9532604161375</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.0506060428366</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>56.89688419495459</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>14.45548819888978</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.2427457127102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>31.75095046802832</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25134,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.74113413690259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.5626641440179</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>84.59001010593096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147612</v>
@@ -26337,25 +26337,25 @@
         <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="L2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757845</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757931</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.793690575921</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758033</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905757877</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411075</v>
+        <v>-52422.45933411078</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804337</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804335</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>104494.0131388509</v>
+        <v>105371.1452726004</v>
       </c>
       <c r="F6" t="n">
-        <v>629654.0496157473</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="G6" t="n">
-        <v>629654.0496157474</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="H6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="I6" t="n">
-        <v>629654.0496157473</v>
+        <v>630531.1817494967</v>
       </c>
       <c r="J6" t="n">
-        <v>453230.8304231542</v>
+        <v>454107.9625569035</v>
       </c>
       <c r="K6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="L6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="M6" t="n">
-        <v>494853.03438191</v>
+        <v>495730.1665156592</v>
       </c>
       <c r="N6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="O6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="P6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494965</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,25 +26795,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724685</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>317.6390936003529</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>219.6222923912289</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>125.5668012208408</v>
+        <v>96.44405126592652</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>95.72978106885716</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>10.98247917251575</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594878</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.495131990392147e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.70421572663301e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.221113634493629e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.704215726633014e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.221113634493629e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.487140834762211e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31378,10 +31378,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653307</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>98.44906376001063</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>48.48571443651613</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32320,16 +32320,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776617</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32338,13 +32338,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32557,19 +32557,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>158.6223655444443</v>
+        <v>158.6223655444452</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33286,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33760,13 +33760,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>32.39888063626331</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7151385922957</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>175.1095124747357</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700513</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>343.1107267700513</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
